--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lgi4</t>
   </si>
   <si>
     <t>Adam23</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H2">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I2">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J2">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N2">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="O2">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P2">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q2">
-        <v>0.03376255285655556</v>
+        <v>0.01629207847066667</v>
       </c>
       <c r="R2">
-        <v>0.303862975709</v>
+        <v>0.146628706236</v>
       </c>
       <c r="S2">
-        <v>0.0006007029256119244</v>
+        <v>0.000286624690128839</v>
       </c>
       <c r="T2">
-        <v>0.0006007029256119242</v>
+        <v>0.000286624690128839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H3">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I3">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J3">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>52.897882</v>
       </c>
       <c r="O3">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="P3">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="Q3">
-        <v>1.190984058145111</v>
+        <v>1.237880969309333</v>
       </c>
       <c r="R3">
-        <v>10.718856523306</v>
+        <v>11.140928723784</v>
       </c>
       <c r="S3">
-        <v>0.02118997372990468</v>
+        <v>0.02177789960215898</v>
       </c>
       <c r="T3">
-        <v>0.02118997372990467</v>
+        <v>0.02177789960215898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H4">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I4">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J4">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="N4">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="O4">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="P4">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="Q4">
-        <v>0.0009554371097777779</v>
+        <v>0.05179950657066668</v>
       </c>
       <c r="R4">
-        <v>0.008598933987999999</v>
+        <v>0.466195559136</v>
       </c>
       <c r="S4">
-        <v>1.699912531851909E-05</v>
+        <v>0.0009113028485822508</v>
       </c>
       <c r="T4">
-        <v>1.699912531851909E-05</v>
+        <v>0.000911302848582251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H5">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I5">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J5">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,60 +744,60 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="N5">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="O5">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="P5">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="Q5">
-        <v>0.04805981949666666</v>
+        <v>0.08030090308933333</v>
       </c>
       <c r="R5">
-        <v>0.4325383754699999</v>
+        <v>0.722708127804</v>
       </c>
       <c r="S5">
-        <v>0.0008550797180143663</v>
+        <v>0.001412724687429294</v>
       </c>
       <c r="T5">
-        <v>0.0008550797180143662</v>
+        <v>0.001412724687429294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.302381666666667</v>
+        <v>0.070204</v>
       </c>
       <c r="H6">
-        <v>6.907145</v>
+        <v>0.210612</v>
       </c>
       <c r="I6">
-        <v>0.7725046677002302</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J6">
-        <v>0.7725046677002302</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4998576666666667</v>
+        <v>0.07434200000000001</v>
       </c>
       <c r="N6">
-        <v>1.499573</v>
+        <v>0.223026</v>
       </c>
       <c r="O6">
-        <v>0.02650617333988447</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="P6">
-        <v>0.02650617333988446</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="Q6">
-        <v>1.150863127676111</v>
+        <v>0.005219105768</v>
       </c>
       <c r="R6">
-        <v>10.357768149085</v>
+        <v>0.046971951912</v>
       </c>
       <c r="S6">
-        <v>0.02047614262793215</v>
+        <v>9.181913628736798E-05</v>
       </c>
       <c r="T6">
-        <v>0.02047614262793215</v>
+        <v>9.181913628736798E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +856,40 @@
         <v>6.907145</v>
       </c>
       <c r="I7">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J7">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>17.63262733333333</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N7">
-        <v>52.897882</v>
+        <v>0.696203</v>
       </c>
       <c r="O7">
-        <v>0.9350131201380354</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P7">
-        <v>0.9350131201380353</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q7">
-        <v>40.59703790743222</v>
+        <v>0.5343083411594445</v>
       </c>
       <c r="R7">
-        <v>365.37334116689</v>
+        <v>4.808775070435</v>
       </c>
       <c r="S7">
-        <v>0.7223019996675885</v>
+        <v>0.009400026092055343</v>
       </c>
       <c r="T7">
-        <v>0.7223019996675883</v>
+        <v>0.009400026092055343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>6.907145</v>
       </c>
       <c r="I8">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J8">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01414533333333333</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="N8">
-        <v>0.042436</v>
+        <v>52.897882</v>
       </c>
       <c r="O8">
-        <v>0.0007500908404267997</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="P8">
-        <v>0.0007500908404267996</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="Q8">
-        <v>0.03256795613555556</v>
+        <v>40.59703790743222</v>
       </c>
       <c r="R8">
-        <v>0.29311160522</v>
+        <v>365.37334116689</v>
       </c>
       <c r="S8">
-        <v>0.0005794486754288913</v>
+        <v>0.7142190869824815</v>
       </c>
       <c r="T8">
-        <v>0.0005794486754288912</v>
+        <v>0.7142190869824816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -977,10 +980,10 @@
         <v>6.907145</v>
       </c>
       <c r="I9">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J9">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,43 +992,43 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7115299999999999</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="N9">
-        <v>2.13459</v>
+        <v>2.213528</v>
       </c>
       <c r="O9">
-        <v>0.03773061568165336</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="P9">
-        <v>0.03773061568165335</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="Q9">
-        <v>1.638213627283333</v>
+        <v>1.698795428617778</v>
       </c>
       <c r="R9">
-        <v>14.74392264555</v>
+        <v>15.28915885756</v>
       </c>
       <c r="S9">
-        <v>0.02914707672928072</v>
+        <v>0.02988671544864799</v>
       </c>
       <c r="T9">
-        <v>0.02914707672928072</v>
+        <v>0.029886715448648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6104853333333333</v>
+        <v>2.302381666666667</v>
       </c>
       <c r="H10">
-        <v>1.831456</v>
+        <v>6.907145</v>
       </c>
       <c r="I10">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J10">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4998576666666667</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="N10">
-        <v>1.499573</v>
+        <v>3.431467</v>
       </c>
       <c r="O10">
-        <v>0.02650617333988447</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="P10">
-        <v>0.02650617333988446</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="Q10">
-        <v>0.3051557742542222</v>
+        <v>2.633515570190556</v>
       </c>
       <c r="R10">
-        <v>2.746401968288</v>
+        <v>23.701640131715</v>
       </c>
       <c r="S10">
-        <v>0.005429327786340392</v>
+        <v>0.0463311409661074</v>
       </c>
       <c r="T10">
-        <v>0.005429327786340391</v>
+        <v>0.0463311409661074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1095,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6104853333333333</v>
+        <v>2.302381666666667</v>
       </c>
       <c r="H11">
-        <v>1.831456</v>
+        <v>6.907145</v>
       </c>
       <c r="I11">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J11">
-        <v>0.2048325768009203</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.63262733333333</v>
+        <v>0.07434200000000001</v>
       </c>
       <c r="N11">
-        <v>52.897882</v>
+        <v>0.223026</v>
       </c>
       <c r="O11">
-        <v>0.9350131201380354</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="P11">
-        <v>0.9350131201380353</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="Q11">
-        <v>10.76446037513244</v>
+        <v>0.1711636578633333</v>
       </c>
       <c r="R11">
-        <v>96.880143376192</v>
+        <v>1.54047292077</v>
       </c>
       <c r="S11">
-        <v>0.1915211467405422</v>
+        <v>0.003011262834556494</v>
       </c>
       <c r="T11">
-        <v>0.1915211467405422</v>
+        <v>0.003011262834556494</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6104853333333333</v>
+        <v>0.02759</v>
       </c>
       <c r="H12">
-        <v>1.831456</v>
+        <v>0.08277</v>
       </c>
       <c r="I12">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="J12">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.01414533333333333</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N12">
-        <v>0.042436</v>
+        <v>0.696203</v>
       </c>
       <c r="O12">
-        <v>0.0007500908404267997</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P12">
-        <v>0.0007500908404267996</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q12">
-        <v>0.008635518535111112</v>
+        <v>0.006402746923333333</v>
       </c>
       <c r="R12">
-        <v>0.077719666816</v>
+        <v>0.05762472231</v>
       </c>
       <c r="S12">
-        <v>0.0001536430396793893</v>
+        <v>0.0001126428009893264</v>
       </c>
       <c r="T12">
-        <v>0.0001536430396793893</v>
+        <v>0.0001126428009893264</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02759</v>
+      </c>
+      <c r="H13">
+        <v>0.08277</v>
+      </c>
+      <c r="I13">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J13">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.63262733333333</v>
+      </c>
+      <c r="N13">
+        <v>52.897882</v>
+      </c>
+      <c r="O13">
+        <v>0.889606600882922</v>
+      </c>
+      <c r="P13">
+        <v>0.8896066008829221</v>
+      </c>
+      <c r="Q13">
+        <v>0.4864841881266666</v>
+      </c>
+      <c r="R13">
+        <v>4.378357693139999</v>
+      </c>
+      <c r="S13">
+        <v>0.008558661187732412</v>
+      </c>
+      <c r="T13">
+        <v>0.008558661187732413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02759</v>
+      </c>
+      <c r="H14">
+        <v>0.08277</v>
+      </c>
+      <c r="I14">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J14">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7378426666666668</v>
+      </c>
+      <c r="N14">
+        <v>2.213528</v>
+      </c>
+      <c r="O14">
+        <v>0.03722585944063267</v>
+      </c>
+      <c r="P14">
+        <v>0.03722585944063268</v>
+      </c>
+      <c r="Q14">
+        <v>0.02035707917333334</v>
+      </c>
+      <c r="R14">
+        <v>0.18321371256</v>
+      </c>
+      <c r="S14">
+        <v>0.0003581397867982494</v>
+      </c>
+      <c r="T14">
+        <v>0.0003581397867982495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02759</v>
+      </c>
+      <c r="H15">
+        <v>0.08277</v>
+      </c>
+      <c r="I15">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J15">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.143822333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.431467</v>
+      </c>
+      <c r="O15">
+        <v>0.05770846730521116</v>
+      </c>
+      <c r="P15">
+        <v>0.05770846730521117</v>
+      </c>
+      <c r="Q15">
+        <v>0.03155805817666667</v>
+      </c>
+      <c r="R15">
+        <v>0.28402252359</v>
+      </c>
+      <c r="S15">
+        <v>0.0005551973409802037</v>
+      </c>
+      <c r="T15">
+        <v>0.0005551973409802038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02759</v>
+      </c>
+      <c r="H16">
+        <v>0.08277</v>
+      </c>
+      <c r="I16">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J16">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.223026</v>
+      </c>
+      <c r="O16">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="P16">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="Q16">
+        <v>0.00205109578</v>
+      </c>
+      <c r="R16">
+        <v>0.01845986202</v>
+      </c>
+      <c r="S16">
+        <v>3.608469560379013E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.608469560379013E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.310138</v>
+      </c>
+      <c r="I17">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J17">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2320676666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.696203</v>
+      </c>
+      <c r="O17">
+        <v>0.01170834749781651</v>
+      </c>
+      <c r="P17">
+        <v>0.01170834749781651</v>
+      </c>
+      <c r="Q17">
+        <v>0.1013468895571111</v>
+      </c>
+      <c r="R17">
+        <v>0.9121220060140001</v>
+      </c>
+      <c r="S17">
+        <v>0.001782984342183811</v>
+      </c>
+      <c r="T17">
+        <v>0.001782984342183811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.310138</v>
+      </c>
+      <c r="I18">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J18">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>17.63262733333333</v>
+      </c>
+      <c r="N18">
+        <v>52.897882</v>
+      </c>
+      <c r="O18">
+        <v>0.889606600882922</v>
+      </c>
+      <c r="P18">
+        <v>0.8896066008829221</v>
+      </c>
+      <c r="Q18">
+        <v>7.700391703079555</v>
+      </c>
+      <c r="R18">
+        <v>69.303525327716</v>
+      </c>
+      <c r="S18">
+        <v>0.1354721185353796</v>
+      </c>
+      <c r="T18">
+        <v>0.1354721185353796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.6104853333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.831456</v>
-      </c>
-      <c r="I13">
-        <v>0.2048325768009203</v>
-      </c>
-      <c r="J13">
-        <v>0.2048325768009203</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.7115299999999999</v>
-      </c>
-      <c r="N13">
-        <v>2.13459</v>
-      </c>
-      <c r="O13">
-        <v>0.03773061568165336</v>
-      </c>
-      <c r="P13">
-        <v>0.03773061568165335</v>
-      </c>
-      <c r="Q13">
-        <v>0.4343786292266666</v>
-      </c>
-      <c r="R13">
-        <v>3.90940766304</v>
-      </c>
-      <c r="S13">
-        <v>0.00772845923435827</v>
-      </c>
-      <c r="T13">
-        <v>0.007728459234358269</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.310138</v>
+      </c>
+      <c r="I19">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J19">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7378426666666668</v>
+      </c>
+      <c r="N19">
+        <v>2.213528</v>
+      </c>
+      <c r="O19">
+        <v>0.03722585944063267</v>
+      </c>
+      <c r="P19">
+        <v>0.03722585944063268</v>
+      </c>
+      <c r="Q19">
+        <v>0.3222252385404445</v>
+      </c>
+      <c r="R19">
+        <v>2.900027146864</v>
+      </c>
+      <c r="S19">
+        <v>0.005668872103374229</v>
+      </c>
+      <c r="T19">
+        <v>0.005668872103374229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.310138</v>
+      </c>
+      <c r="I20">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J20">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.143822333333333</v>
+      </c>
+      <c r="N20">
+        <v>3.431467</v>
+      </c>
+      <c r="O20">
+        <v>0.05770846730521116</v>
+      </c>
+      <c r="P20">
+        <v>0.05770846730521117</v>
+      </c>
+      <c r="Q20">
+        <v>0.4995217013828889</v>
+      </c>
+      <c r="R20">
+        <v>4.495695312446</v>
+      </c>
+      <c r="S20">
+        <v>0.008788028680888271</v>
+      </c>
+      <c r="T20">
+        <v>0.008788028680888271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.310138</v>
+      </c>
+      <c r="I21">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J21">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.223026</v>
+      </c>
+      <c r="O21">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="P21">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="Q21">
+        <v>0.03246609306533334</v>
+      </c>
+      <c r="R21">
+        <v>0.292194837588</v>
+      </c>
+      <c r="S21">
+        <v>0.0005711722958675656</v>
+      </c>
+      <c r="T21">
+        <v>0.0005711722958675656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.092636</v>
+      </c>
+      <c r="I22">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J22">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2320676666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.696203</v>
+      </c>
+      <c r="O22">
+        <v>0.01170834749781651</v>
+      </c>
+      <c r="P22">
+        <v>0.01170834749781651</v>
+      </c>
+      <c r="Q22">
+        <v>0.007165940123111111</v>
+      </c>
+      <c r="R22">
+        <v>0.064493461108</v>
+      </c>
+      <c r="S22">
+        <v>0.000126069572459191</v>
+      </c>
+      <c r="T22">
+        <v>0.000126069572459191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.092636</v>
+      </c>
+      <c r="I23">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J23">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>17.63262733333333</v>
+      </c>
+      <c r="N23">
+        <v>52.897882</v>
+      </c>
+      <c r="O23">
+        <v>0.889606600882922</v>
+      </c>
+      <c r="P23">
+        <v>0.8896066008829221</v>
+      </c>
+      <c r="Q23">
+        <v>0.5444720218835555</v>
+      </c>
+      <c r="R23">
+        <v>4.900248196951999</v>
+      </c>
+      <c r="S23">
+        <v>0.009578834575169502</v>
+      </c>
+      <c r="T23">
+        <v>0.009578834575169504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.092636</v>
+      </c>
+      <c r="I24">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J24">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7378426666666668</v>
+      </c>
+      <c r="N24">
+        <v>2.213528</v>
+      </c>
+      <c r="O24">
+        <v>0.03722585944063267</v>
+      </c>
+      <c r="P24">
+        <v>0.03722585944063268</v>
+      </c>
+      <c r="Q24">
+        <v>0.02278359775644445</v>
+      </c>
+      <c r="R24">
+        <v>0.205052379808</v>
+      </c>
+      <c r="S24">
+        <v>0.000400829253229946</v>
+      </c>
+      <c r="T24">
+        <v>0.0004008292532299461</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.092636</v>
+      </c>
+      <c r="I25">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J25">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.143822333333333</v>
+      </c>
+      <c r="N25">
+        <v>3.431467</v>
+      </c>
+      <c r="O25">
+        <v>0.05770846730521116</v>
+      </c>
+      <c r="P25">
+        <v>0.05770846730521117</v>
+      </c>
+      <c r="Q25">
+        <v>0.03531970855688889</v>
+      </c>
+      <c r="R25">
+        <v>0.317877377012</v>
+      </c>
+      <c r="S25">
+        <v>0.0006213756298059943</v>
+      </c>
+      <c r="T25">
+        <v>0.0006213756298059943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.092636</v>
+      </c>
+      <c r="I26">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J26">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.223026</v>
+      </c>
+      <c r="O26">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="P26">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="Q26">
+        <v>0.002295581837333333</v>
+      </c>
+      <c r="R26">
+        <v>0.020660236536</v>
+      </c>
+      <c r="S26">
+        <v>4.038591110248523E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.038591110248523E-05</v>
       </c>
     </row>
   </sheetData>
